--- a/Odey.Excel.CrispinsSpreadsheet/Crispin Spreadsheet.xlsx
+++ b/Odey.Excel.CrispinsSpreadsheet/Crispin Spreadsheet.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>SKY LN Equity</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Current</t>
   </si>
   <si>
-    <t>PX_LAST</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -125,6 +122,18 @@
   </si>
   <si>
     <t>Japan</t>
+  </si>
+  <si>
+    <t>Ticker Type</t>
+  </si>
+  <si>
+    <t>LAST_PRICE</t>
+  </si>
+  <si>
+    <t>QUOTE_FACTOR</t>
+  </si>
+  <si>
+    <t>Price Divisor</t>
   </si>
 </sst>
 </file>
@@ -135,10 +144,10 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="168" formatCode="\+0.00%;[Red]\-0.00%"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot; &quot;;[Red]\-#,##0.00&quot; &quot;"/>
-    <numFmt numFmtId="170" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="166" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="167" formatCode="\+0.00%;[Red]\-0.00%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00&quot; &quot;;[Red]\-#,##0.00&quot; &quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -254,43 +263,40 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -302,34 +308,35 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -369,17 +376,6 @@
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp>
-        <v>1843.5</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>8591 JT Equity</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Crispin Spreadsheet.xlsx]Portfolio!R6C6</stp>
-        <tr r="F6" s="2"/>
-      </tp>
-    </main>
-    <main first="bloomberg.rtd">
       <tp t="s">
         <v>ORIX CORP</v>
         <stp/>
@@ -403,7 +399,7 @@
     </main>
     <main first="bloomberg.rtd">
       <tp>
-        <v>1055.5</v>
+        <v>1082</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SKY LN Equity</stp>
@@ -414,6 +410,28 @@
     </main>
     <main first="bloomberg.rtd">
       <tp>
+        <v>1.1287</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>GBpEUR Curncy</stp>
+        <stp>LAST_PRICE</stp>
+        <stp>[Crispin Spreadsheet.xlsx]Portfolio!R10C12</stp>
+        <tr r="L10" s="2"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp>
+        <v>1101</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SKY LN Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <stp>[Crispin Spreadsheet.xlsx]Portfolio!R9C6</stp>
+        <tr r="F9" s="2"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp>
         <v>1818.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -424,6 +442,26 @@
       </tp>
     </main>
     <main first="bloomberg.rtd">
+      <tp>
+        <v>0.75744999999999996</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>JPYEUR Curncy</stp>
+        <stp>LAST_PRICE</stp>
+        <stp>[Crispin Spreadsheet.xlsx]Portfolio!R6C12</stp>
+        <tr r="L6" s="2"/>
+      </tp>
+      <tp>
+        <v>1.1287</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>GBpEUR Curncy</stp>
+        <stp>LAST_PRICE</stp>
+        <stp>[Crispin Spreadsheet.xlsx]Portfolio!R9C12</stp>
+        <tr r="L9" s="2"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
       <tp t="s">
         <v>JPY</v>
         <stp/>
@@ -436,62 +474,40 @@
     </main>
     <main first="bloomberg.rtd">
       <tp>
-        <v>201.95</v>
+        <v>204.65</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VOD LN Equity</stp>
-        <stp>PX_LAST</stp>
+        <stp>LAST_PRICE</stp>
         <stp>[Crispin Spreadsheet.xlsx]Portfolio!R10C6</stp>
         <tr r="F10" s="2"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
       <tp>
-        <v>1.1251</v>
+        <v>1868</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>8591 JT Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <stp>[Crispin Spreadsheet.xlsx]Portfolio!R6C6</stp>
+        <tr r="F6" s="2"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp>
+        <v>1</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GBpEUR Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Crispin Spreadsheet.xlsx]Portfolio!R10C11</stp>
-        <tr r="K10" s="2"/>
-      </tp>
-    </main>
-    <main first="bloomberg.rtd">
-      <tp>
-        <v>1.1251</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>GBpEUR Curncy</stp>
-        <stp>PX_LAST</stp>
+        <stp>QUOTE_FACTOR</stp>
         <stp>[Crispin Spreadsheet.xlsx]Portfolio!R9C11</stp>
         <tr r="K9" s="2"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
       <tp>
-        <v>0.75251000000000001</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>JPYEUR Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Crispin Spreadsheet.xlsx]Portfolio!R6C11</stp>
-        <tr r="K6" s="2"/>
-      </tp>
-    </main>
-    <main first="bloomberg.rtd">
-      <tp>
-        <v>1059</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SKY LN Equity</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Crispin Spreadsheet.xlsx]Portfolio!R9C6</stp>
-        <tr r="F9" s="2"/>
-      </tp>
-    </main>
-    <main first="bloomberg.rtd">
-      <tp>
-        <v>202.2</v>
+        <v>199.74</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VOD LN Equity</stp>
@@ -520,6 +536,17 @@
         <stp>CRNCY</stp>
         <stp>[Crispin Spreadsheet.xlsx]Portfolio!R10C3</stp>
         <tr r="C10" s="2"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp>
+        <v>100</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>JPYEUR Curncy</stp>
+        <stp>QUOTE_FACTOR</stp>
+        <stp>[Crispin Spreadsheet.xlsx]Portfolio!R6C11</stp>
+        <tr r="K6" s="2"/>
       </tp>
     </main>
   </volType>
@@ -803,10 +830,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="B5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -815,30 +842,32 @@
     <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="31" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14" style="8" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="8" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="11" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" style="11" customWidth="1"/>
-    <col min="18" max="18" width="15" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="12.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="30" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14" style="7" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="7" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="10" customWidth="1"/>
+    <col min="17" max="18" width="8.85546875" style="10" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="40" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -847,10 +876,10 @@
         <v>168685024.77193999</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -859,69 +888,79 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="47" t="str">
+      <c r="M5" s="46" t="str">
         <f>CONCATENATE("PNL(",B2,")")</f>
         <v>PNL(EUR)</v>
       </c>
-      <c r="M5" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="Q5" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="R5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>21</v>
+      <c r="S5" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="48" t="s">
-        <v>30</v>
+    <row r="6" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>_xll.BDP(B6,$C$4)</f>
@@ -937,117 +976,122 @@
       </c>
       <c r="F6" s="2">
         <f>_xll.BDP(B6,$F$4)</f>
-        <v>1843.5</v>
-      </c>
-      <c r="G6" s="41">
+        <v>1868</v>
+      </c>
+      <c r="G6" s="40">
         <f>F6-E6</f>
-        <v>25</v>
-      </c>
-      <c r="H6" s="27">
+        <v>49.5</v>
+      </c>
+      <c r="H6" s="26">
         <f>G6/E6*100</f>
-        <v>1.3747594171020072</v>
-      </c>
-      <c r="I6" s="31">
+        <v>2.7220236458619742</v>
+      </c>
+      <c r="I6" s="30">
         <v>117600</v>
       </c>
       <c r="J6" s="1" t="str">
         <f>CONCATENATE(C6,FundCurrency, " Curncy")</f>
         <v>JPYEUR Curncy</v>
       </c>
-      <c r="K6" s="4">
-        <f>_xll.BDP(J6,$K$4)</f>
-        <v>0.75251000000000001</v>
-      </c>
-      <c r="L6" s="8">
-        <f>I6*G6*K6*R6</f>
-        <v>2212379.4</v>
-      </c>
-      <c r="M6" s="9">
-        <f t="shared" ref="M6" si="0">L6/$C$2</f>
-        <v>1.31154463947888E-2</v>
+      <c r="K6" s="1">
+        <f>IF(C6=FundCurrency,1,_xll.BDP(J6,$K$4))</f>
+        <v>100</v>
+      </c>
+      <c r="L6" s="4">
+        <f>_xll.BDP(J6,$L$4)/K6</f>
+        <v>7.5744999999999996E-3</v>
+      </c>
+      <c r="M6" s="7">
+        <f>I6*G6*L6*S6</f>
+        <v>44092.679400000001</v>
       </c>
       <c r="N6" s="8">
-        <f>I6*F6*K6*R6</f>
-        <v>163140856.956</v>
-      </c>
-      <c r="O6" s="11">
-        <f>N6/NAV/100</f>
-        <v>9.671330171517261E-3</v>
-      </c>
-      <c r="P6" s="11">
-        <f>IF(O6&lt;0,O6,0)</f>
+        <f t="shared" ref="N6" si="0">M6/$C$2</f>
+        <v>2.6139059741439846E-4</v>
+      </c>
+      <c r="O6" s="7">
+        <f>I6*F6*L6*S6</f>
+        <v>1663941.9216</v>
+      </c>
+      <c r="P6" s="10">
+        <f>O6/NAV/100</f>
+        <v>9.864194666062552E-5</v>
+      </c>
+      <c r="Q6" s="10">
+        <f>IF(P6&lt;0,P6,0)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="11">
-        <f>IF(O6&gt;0,O6,0)</f>
-        <v>9.671330171517261E-3</v>
-      </c>
-      <c r="R6" s="1">
+      <c r="R6" s="10">
+        <f>IF(P6&gt;0,P6,0)</f>
+        <v>9.864194666062552E-5</v>
+      </c>
+      <c r="S6" s="40">
         <f>IF(EXACT(C6,UPPER(C6)),1,0.01)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="39">
-        <f>SUM(L6:L6)</f>
-        <v>2212379.4</v>
-      </c>
-      <c r="M7" s="19">
-        <f>SUM(M6:M6)</f>
-        <v>1.31154463947888E-2</v>
-      </c>
-      <c r="N7" s="39">
-        <f>SUM(N6:N6)</f>
-        <v>163140856.956</v>
-      </c>
-      <c r="O7" s="53">
-        <f>SUM(O6:O6)</f>
-        <v>9.671330171517261E-3</v>
-      </c>
-      <c r="P7" s="53">
-        <f>SUM(P6:P6)</f>
+        <v>28</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="38">
+        <f t="shared" ref="M7:R7" si="1">SUM(M6:M6)</f>
+        <v>44092.679400000001</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" si="1"/>
+        <v>2.6139059741439846E-4</v>
+      </c>
+      <c r="O7" s="38">
+        <f t="shared" si="1"/>
+        <v>1663941.9216</v>
+      </c>
+      <c r="P7" s="52">
+        <f t="shared" si="1"/>
+        <v>9.864194666062552E-5</v>
+      </c>
+      <c r="Q7" s="52">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="53">
-        <f>SUM(Q6:Q6)</f>
-        <v>9.671330171517261E-3</v>
+      <c r="R7" s="52">
+        <f t="shared" si="1"/>
+        <v>9.864194666062552E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="6"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,61 +1105,69 @@
       </c>
       <c r="E9" s="2">
         <f>_xll.BDP(B9,$E$4)</f>
-        <v>1055.5</v>
+        <v>1082</v>
       </c>
       <c r="F9" s="2">
         <f>_xll.BDP(B9,$F$4)</f>
-        <v>1059</v>
-      </c>
-      <c r="G9" s="41">
+        <v>1101</v>
+      </c>
+      <c r="G9" s="40">
         <f>F9-E9</f>
-        <v>3.5</v>
-      </c>
-      <c r="H9" s="27">
+        <v>19</v>
+      </c>
+      <c r="H9" s="26">
         <f>G9/E9*100</f>
-        <v>0.33159639981051636</v>
-      </c>
-      <c r="I9" s="31">
+        <v>1.756007393715342</v>
+      </c>
+      <c r="I9" s="30">
         <v>1807000</v>
       </c>
       <c r="J9" s="1" t="str">
         <f>CONCATENATE(C9,FundCurrency, " Curncy")</f>
         <v>GBpEUR Curncy</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="1">
         <f>_xll.BDP(J9,$K$4)</f>
-        <v>1.1251</v>
-      </c>
-      <c r="L9" s="8">
-        <f>I9*G9*K9*R9</f>
-        <v>71156.949500000002</v>
-      </c>
-      <c r="M9" s="9">
-        <f>L9/$C$2</f>
-        <v>4.218332338404271E-4</v>
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <f>_xll.BDP(J9,$L$4)</f>
+        <v>1.1287</v>
+      </c>
+      <c r="M9" s="7">
+        <f>I9*G9*L9*S9</f>
+        <v>387516.571</v>
       </c>
       <c r="N9" s="8">
-        <f>I9*F9*K9*R9</f>
-        <v>21530059.863000002</v>
-      </c>
-      <c r="O9" s="11">
-        <f>N9/NAV*100</f>
-        <v>12.763468418200352</v>
-      </c>
-      <c r="P9" s="11">
-        <f>IF(O9&lt;0,O9,0)</f>
+        <f>M9/$C$2</f>
+        <v>2.2972790354325611E-3</v>
+      </c>
+      <c r="O9" s="7">
+        <f>I9*F9*L9*S9</f>
+        <v>22455565.509</v>
+      </c>
+      <c r="P9" s="10">
+        <f>O9/NAV*100</f>
+        <v>13.312127463217106</v>
+      </c>
+      <c r="Q9" s="10">
+        <f>IF(P9&lt;0,P9,0)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="11">
-        <f>IF(O9&gt;0,O9,0)</f>
-        <v>12.763468418200352</v>
-      </c>
-      <c r="R9" s="1">
+      <c r="R9" s="10">
+        <f>IF(P9&gt;0,P9,0)</f>
+        <v>13.312127463217106</v>
+      </c>
+      <c r="S9" s="40">
         <f>IF(EXACT(C9,UPPER(C9)),1,0.01)</f>
         <v>0.01</v>
       </c>
+      <c r="V9" s="1">
+        <f>U9/0.001</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1129,132 +1181,135 @@
       </c>
       <c r="E10" s="2">
         <f>_xll.BDP(B10,$E$4)</f>
-        <v>202.2</v>
+        <v>199.74</v>
       </c>
       <c r="F10" s="2">
         <f>_xll.BDP(B10,$F$4)</f>
-        <v>201.95</v>
-      </c>
-      <c r="G10" s="41">
+        <v>204.65</v>
+      </c>
+      <c r="G10" s="40">
         <f>F10-E10</f>
-        <v>-0.25</v>
-      </c>
-      <c r="H10" s="27">
+        <v>4.9099999999999966</v>
+      </c>
+      <c r="H10" s="26">
         <f>G10/E10*100</f>
-        <v>-0.12363996043521268</v>
+        <v>2.458195654350654</v>
       </c>
       <c r="J10" s="1" t="str">
         <f>CONCATENATE(C10,FundCurrency, " Curncy")</f>
         <v>GBpEUR Curncy</v>
       </c>
-      <c r="K10" s="4">
-        <f>_xll.BDP(J10,$K$4)</f>
-        <v>1.1251</v>
-      </c>
-      <c r="R10" s="1">
+      <c r="L10" s="4">
+        <f>_xll.BDP(J10,$L$4)</f>
+        <v>1.1287</v>
+      </c>
+      <c r="S10" s="40">
         <f>IF(EXACT(C10,UPPER(C10)),1,0.01)</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="38">
+        <f t="shared" ref="M11:R11" si="2">SUM(M9:M10)</f>
+        <v>387516.571</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="2"/>
+        <v>2.2972790354325611E-3</v>
+      </c>
+      <c r="O11" s="38">
+        <f t="shared" si="2"/>
+        <v>22455565.509</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="2"/>
+        <v>13.312127463217106</v>
+      </c>
+      <c r="Q11" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <f t="shared" si="2"/>
+        <v>13.312127463217106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="N12" s="18"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="39">
-        <f t="shared" ref="L11:Q11" si="1">SUM(L9:L10)</f>
-        <v>71156.949500000002</v>
-      </c>
-      <c r="M11" s="10">
-        <f t="shared" si="1"/>
-        <v>4.218332338404271E-4</v>
-      </c>
-      <c r="N11" s="39">
-        <f t="shared" si="1"/>
-        <v>21530059.863000002</v>
-      </c>
-      <c r="O11" s="12">
-        <f t="shared" si="1"/>
-        <v>12.763468418200352</v>
-      </c>
-      <c r="P11" s="12">
-        <f t="shared" si="1"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="39">
+        <f t="shared" ref="M13:R13" si="3">M7+M11</f>
+        <v>431609.25040000002</v>
+      </c>
+      <c r="N13" s="21">
+        <f t="shared" si="3"/>
+        <v>2.5586696328469597E-3</v>
+      </c>
+      <c r="O13" s="39">
+        <f t="shared" si="3"/>
+        <v>24119507.430599999</v>
+      </c>
+      <c r="P13" s="29">
+        <f t="shared" si="3"/>
+        <v>13.312226105163766</v>
+      </c>
+      <c r="Q13" s="29">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="12">
-        <f t="shared" si="1"/>
-        <v>12.763468418200352</v>
+      <c r="R13" s="29">
+        <f t="shared" si="3"/>
+        <v>13.312226105163766</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="M12" s="19"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-    </row>
-    <row r="13" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="40">
-        <f>L7+L11</f>
-        <v>2283536.3495</v>
-      </c>
-      <c r="M13" s="22">
-        <f>M7+M11</f>
-        <v>1.3537279628629228E-2</v>
-      </c>
-      <c r="N13" s="40">
-        <f>N7+N11</f>
-        <v>184670916.81900001</v>
-      </c>
-      <c r="O13" s="30">
-        <f>O7+O11</f>
-        <v>12.77313974837187</v>
-      </c>
-      <c r="P13" s="30">
-        <f>P7+P11</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="30">
-        <f>Q7+Q11</f>
-        <v>12.77313974837187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:22" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
